--- a/プロジェクト型演習_成果物(編集).xlsx
+++ b/プロジェクト型演習_成果物(編集).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user43\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEB7D01-E630-4C76-AE8D-AF63BD0A0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457A90D-519B-4FE2-A6B8-7888F892CD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -461,22 +461,6 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※1　詳細画面で表示した値を設定する</t>
-    <rPh sb="3" eb="7">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -926,6 +910,47 @@
     <rPh sb="72" eb="74">
       <t>ニュウリョク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1　詳細画面で表示した値を設定する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧に戻る</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/TaskListServlet</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1013,7 +1038,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -2032,6 +2057,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2039,7 +2101,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2106,8 +2168,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2115,33 +2201,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2151,123 +2348,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2277,169 +2426,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2463,9 +2465,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="80" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2475,62 +2474,122 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="82" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="83" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4561,391 +4620,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22" t="s">
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22" t="s">
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="25" t="s">
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="74"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="29"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="83"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="29"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="83"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="29"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="83"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="29"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="83"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="32"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="77"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22" t="s">
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22" t="s">
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="34" t="s">
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="22" t="s">
+      <c r="J14" s="80"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22" t="s">
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22" t="s">
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22" t="s">
+      <c r="J16" s="78"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="25" t="s">
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="33" t="s">
+      <c r="J17" s="73"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="74"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="28"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="32"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="77"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="22" t="s">
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22" t="s">
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22" t="s">
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="78"/>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="78"/>
+      <c r="S19" s="78"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="74" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="51"/>
-      <c r="H22" s="74" t="s">
+      <c r="G22" s="57"/>
+      <c r="H22" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="51"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -4957,371 +5016,339 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="52" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="67"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="49"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="72"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="68"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="68"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="50" t="s">
+      <c r="C26" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="46" t="s">
+      <c r="D26" s="63"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="48"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="64"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="42"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="40"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
-      <c r="L29" s="61"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="61"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="61"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="161"/>
-      <c r="R31" s="161"/>
-      <c r="S31" s="154"/>
-      <c r="T31" s="161"/>
-      <c r="U31" s="161"/>
-      <c r="V31" s="161"/>
-      <c r="W31" s="161"/>
-      <c r="X31" s="161"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="43"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
-      <c r="L32" s="61"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="161"/>
-      <c r="R32" s="161"/>
-      <c r="S32" s="154"/>
-      <c r="T32" s="154"/>
-      <c r="U32" s="154"/>
-      <c r="V32" s="154"/>
-      <c r="W32" s="154"/>
-      <c r="X32" s="154"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="43"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="61"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="161"/>
-      <c r="R33" s="161"/>
-      <c r="S33" s="154"/>
-      <c r="T33" s="154"/>
-      <c r="U33" s="154"/>
-      <c r="V33" s="154"/>
-      <c r="W33" s="154"/>
-      <c r="X33" s="154"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="61"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="161"/>
-      <c r="R34" s="161"/>
-      <c r="S34" s="154"/>
-      <c r="T34" s="154"/>
-      <c r="U34" s="154"/>
-      <c r="V34" s="154"/>
-      <c r="W34" s="154"/>
-      <c r="X34" s="154"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="43"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="59"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="61"/>
-      <c r="N35" s="161"/>
-      <c r="O35" s="161"/>
-      <c r="P35" s="161"/>
-      <c r="Q35" s="161"/>
-      <c r="R35" s="161"/>
-      <c r="S35" s="154"/>
-      <c r="T35" s="161"/>
-      <c r="U35" s="161"/>
-      <c r="V35" s="161"/>
-      <c r="W35" s="161"/>
-      <c r="X35" s="161"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="61"/>
-      <c r="N36" s="161"/>
-      <c r="O36" s="161"/>
-      <c r="P36" s="163"/>
-      <c r="Q36" s="163"/>
-      <c r="R36" s="163"/>
-      <c r="S36" s="154"/>
-      <c r="T36" s="154"/>
-      <c r="U36" s="154"/>
-      <c r="V36" s="154"/>
-      <c r="W36" s="154"/>
-      <c r="X36" s="154"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="43"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="59"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="61"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="161"/>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="163"/>
-      <c r="R37" s="163"/>
-      <c r="S37" s="154"/>
-      <c r="T37" s="154"/>
-      <c r="U37" s="154"/>
-      <c r="V37" s="154"/>
-      <c r="W37" s="154"/>
-      <c r="X37" s="154"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="59"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="60"/>
-      <c r="L38" s="61"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="61"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="59"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="61"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="43"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="61"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="43"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="59"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="60"/>
-      <c r="L42" s="61"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="43"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="64"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="46"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="42"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="40" t="s">
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="44"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="59"/>
+      <c r="J45" s="60"/>
       <c r="K45" s="4" t="s">
         <v>35</v>
       </c>
@@ -5330,11 +5357,11 @@
       </c>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="44"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
       <c r="F46" s="4" t="s">
         <v>37</v>
       </c>
@@ -5347,18 +5374,18 @@
       <c r="I46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="49" t="s">
+      <c r="J46" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="42"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="44"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6" t="s">
         <v>50</v>
@@ -5369,18 +5396,18 @@
       <c r="I47" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J47" s="40" t="s">
+      <c r="J47" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="K47" s="41"/>
-      <c r="L47" s="42"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="44"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="60"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6" t="s">
         <v>53</v>
@@ -5398,11 +5425,11 @@
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="44"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
         <v>55</v>
@@ -5413,18 +5440,18 @@
       <c r="I49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J49" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="42"/>
+      <c r="J49" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="59"/>
+      <c r="L49" s="65"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="44"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6" t="s">
         <v>53</v>
@@ -5442,11 +5469,11 @@
       <c r="L50" s="12"/>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="44"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6" t="s">
         <v>53</v>
@@ -5464,11 +5491,11 @@
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="44"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
@@ -5477,37 +5504,197 @@
         <v>60</v>
       </c>
       <c r="I52" s="7"/>
-      <c r="J52" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="K52" s="41"/>
-      <c r="L52" s="42"/>
+      <c r="J52" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="59"/>
+      <c r="L52" s="65"/>
     </row>
     <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="71"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="15" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="13"/>
     </row>
+    <row r="54" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C54" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" s="161"/>
+      <c r="E54" s="162"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C55" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" s="161"/>
+      <c r="E55" s="162"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="59"/>
+      <c r="K56" s="59"/>
+      <c r="L56" s="65"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="59"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C58" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="59"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="59"/>
+      <c r="L58" s="65"/>
+    </row>
+    <row r="59" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C59" s="160" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="161"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+  <mergeCells count="78">
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
     <mergeCell ref="C28:L43"/>
@@ -5522,53 +5709,15 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5580,7 +5729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:J11"/>
     </sheetView>
   </sheetViews>
@@ -5591,19 +5740,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="74" t="s">
+      <c r="A1" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="51"/>
+      <c r="G1" s="57"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5615,36 +5764,36 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="67"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="92"/>
       <c r="D4" s="91"/>
       <c r="E4" s="92"/>
@@ -5655,134 +5804,134 @@
       <c r="J4" s="94"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="81" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="75" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="40" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="75" t="s">
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="40" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="109" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="40" t="s">
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="100"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="106"/>
+      <c r="B10" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="100"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="107"/>
+      <c r="B11" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="109" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="40" t="s">
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="98"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
       <c r="A13" s="85" t="s">
@@ -5800,6 +5949,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -5816,17 +5976,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5844,717 +5993,565 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="142" t="s">
+      <c r="A1" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="143"/>
-      <c r="F1" s="144" t="s">
+      <c r="E1" s="122"/>
+      <c r="F1" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="145" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="146" t="s">
+      <c r="I1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="147" t="s">
+      <c r="J1" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="136"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="141" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="149"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="136"/>
-      <c r="B3" s="148"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="151"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="111"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="98"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="92"/>
       <c r="F4" s="91"/>
       <c r="G4" s="92"/>
       <c r="H4" s="93"/>
       <c r="I4" s="93"/>
-      <c r="J4" s="152"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A5" s="153"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
+      <c r="A5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="124" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="131"/>
+      <c r="E7" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="135"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="125"/>
-      <c r="C7" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="127"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="120" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="128" t="s">
+      <c r="B8" s="127"/>
+      <c r="C8" s="136" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="137"/>
+      <c r="E8" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="129"/>
-      <c r="E8" s="128" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="122"/>
-      <c r="B9" s="123"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="155"/>
-      <c r="I9" s="155"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="21"/>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" thickBot="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="155"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="155"/>
-      <c r="I11" s="155"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="113" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A13" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="115" t="s">
+      <c r="B13" s="148"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="115" t="s">
+      <c r="E13" s="148"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="145" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="113" t="s">
+      <c r="B14" s="143"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="111"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="155"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="101" t="s">
+      <c r="B15" s="151"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="151"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
+      <c r="A16" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="106" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="158" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="156"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="103" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="108" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="104"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="155"/>
-      <c r="I16" s="155"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="21"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="155"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" thickBot="1">
       <c r="A18" s="21"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
+      <c r="D19" s="132" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="21"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="155"/>
-      <c r="F20" s="155"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="21"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="21"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="21"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="155"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="21"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="21"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="155"/>
-      <c r="F25" s="155"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="155"/>
-      <c r="I25" s="155"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="21"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="21"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="21"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155"/>
-      <c r="F28" s="155"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="21"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="17"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="21"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="17"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="21"/>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="21"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="17"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="21"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="155"/>
-      <c r="F33" s="155"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="155"/>
-      <c r="I33" s="155"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="17"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="157"/>
+      <c r="A34" s="25"/>
+      <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="153"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="154"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="157"/>
+      <c r="A35" s="25"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="153"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="154"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="157"/>
+      <c r="A36" s="25"/>
+      <c r="J36" s="27"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="153"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="154"/>
-      <c r="I37" s="154"/>
-      <c r="J37" s="157"/>
+      <c r="A37" s="25"/>
+      <c r="J37" s="27"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="153"/>
-      <c r="B38" s="154"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="157"/>
+      <c r="A38" s="25"/>
+      <c r="J38" s="27"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="153"/>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="157"/>
+      <c r="A39" s="25"/>
+      <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="153"/>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="157"/>
+      <c r="A40" s="25"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="153"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="157"/>
+      <c r="A41" s="25"/>
+      <c r="J41" s="27"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="153"/>
-      <c r="B42" s="154"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="157"/>
+      <c r="A42" s="25"/>
+      <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="153"/>
-      <c r="B43" s="154"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="157"/>
+      <c r="A43" s="25"/>
+      <c r="J43" s="27"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="153"/>
-      <c r="B44" s="154"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="157"/>
+      <c r="A44" s="25"/>
+      <c r="J44" s="27"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="153"/>
-      <c r="B45" s="154"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
-      <c r="J45" s="157"/>
+      <c r="A45" s="25"/>
+      <c r="J45" s="27"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="153"/>
-      <c r="B46" s="154"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="157"/>
+      <c r="A46" s="25"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="153"/>
-      <c r="B47" s="154"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="157"/>
+      <c r="A47" s="25"/>
+      <c r="J47" s="27"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="153"/>
-      <c r="B48" s="154"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="157"/>
+      <c r="A48" s="25"/>
+      <c r="J48" s="27"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="153"/>
-      <c r="B49" s="154"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="157"/>
+      <c r="A49" s="25"/>
+      <c r="J49" s="27"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="153"/>
-      <c r="B50" s="154"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="157"/>
+      <c r="A50" s="25"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="153"/>
-      <c r="B51" s="154"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="157"/>
+      <c r="A51" s="25"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="153"/>
-      <c r="B52" s="154"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="157"/>
+      <c r="A52" s="25"/>
+      <c r="J52" s="27"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="153"/>
-      <c r="B53" s="154"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="157"/>
+      <c r="A53" s="25"/>
+      <c r="J53" s="27"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="153"/>
-      <c r="B54" s="154"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="157"/>
+      <c r="A54" s="25"/>
+      <c r="J54" s="27"/>
     </row>
     <row r="55" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A55" s="158"/>
-      <c r="B55" s="159"/>
-      <c r="C55" s="159"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="159"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="160"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -6563,23 +6560,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(編集).xlsx
+++ b/プロジェクト型演習_成果物(編集).xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457A90D-519B-4FE2-A6B8-7888F892CD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F29449-C8BB-45CC-8ABB-136576368771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
-    <sheet name="画面設計書" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="4" r:id="rId1"/>
     <sheet name="ユースケース記述" sheetId="2" r:id="rId2"/>
-    <sheet name="詳細クラス図" sheetId="3" r:id="rId3"/>
+    <sheet name="画面設計書" sheetId="1" r:id="rId3"/>
+    <sheet name="詳細クラス図" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -631,79 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ログイン者が、自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
-タスク詳細画面にて情報を確認したのち、タスク変更画面へと遷移するボタンを押す
-タスク変更画面にて①タスク名②カテゴリー情報③期限④担当者情報⑤ステータス情報⑥メモに変更内容を入力する
-</t>
-    <rPh sb="4" eb="5">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タントウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="30" eb="34">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="63" eb="67">
-      <t>ヘンコウガメン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="83" eb="87">
-      <t>ヘンコウガメン</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="106" eb="109">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="123" eb="127">
-      <t>ヘンコウナイヨウ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -817,37 +745,6 @@
     <t>坂上</t>
     <rPh sb="0" eb="2">
       <t>サカガミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインが済んでいる事　ログイン者がタスク一覧画面へ遷移する際にそのタスクの担当者である事</t>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>コト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -953,12 +850,142 @@
     <t>/TaskListServlet</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プロジェクト型演習　成果ドキュメント</t>
+  </si>
+  <si>
+    <t>タスク管理システム</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ログインが済んでいる事　ログイン者がタスク詳細画面からタスク変更画面に遷移する際にそのタスクの担当者である事</t>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ログイン者が、自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
+タスク詳細画面にて情報を確認したのち、タスク変更画面へと遷移するボタンを押す
+タスク変更画面にて①タスク名②カテゴリー情報③期限④担当者情報⑤ステータス情報⑥メモに変更内容を入力する
+変更ボタンを押下し、タスク変更完了画面へと遷移する
+</t>
+    <rPh sb="4" eb="5">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="34">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>ショウサイガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="83" eb="87">
+      <t>ヘンコウガメン</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="123" eb="127">
+      <t>ヘンコウナイヨウ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="146" eb="152">
+      <t>ヘンコウカンリョウガメン</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,6 +1019,36 @@
       <name val="MS PGothic"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1038,7 +1095,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="91">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -2094,6 +2151,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2101,7 +2167,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2195,14 +2261,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2273,89 +2429,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2387,24 +2492,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2417,20 +2507,110 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2441,9 +2621,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2480,115 +2657,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2697,20 +2784,25 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
         <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2719,13 +2811,37 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>entity</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0" kern="1200" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2763,19 +2879,24 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2825,19 +2946,27 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3646,6 +3775,12 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3757,19 +3892,27 @@
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3778,21 +3921,57 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>TaskCategoryUserStatusDAO</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>--------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>--------------------------------------</a:t>
           </a:r>
         </a:p>
@@ -3815,7 +3994,19 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>+update</a:t>
           </a:r>
         </a:p>
@@ -3838,15 +4029,34 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
             <a:t>(tcus:</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3854,11 +4064,18 @@
             <a:t>TaskCategoryUserStatusBean</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3885,19 +4102,36 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" kern="1200">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" kern="1200" cap="none" spc="0">
+              <a:ln w="0"/>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>:int</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="0" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -3936,10 +4170,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3992,10 +4227,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4050,10 +4286,11 @@
             <a:gd name="adj1" fmla="val 24864"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4106,10 +4343,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4164,10 +4402,11 @@
             <a:gd name="adj1" fmla="val 30612"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4220,10 +4459,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4276,10 +4516,11 @@
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
+          <a:prstDash val="sysDot"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4619,1109 +4860,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
-  <dimension ref="A1:X59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E913E7AF-7189-4835-9B19-3E9AA40635FD}">
+  <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="C5" s="78" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="C6" s="78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="72" t="s">
-        <v>78</v>
-      </c>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="74"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="83"/>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="83"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="83"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="83"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="77"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="C15" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-    </row>
-    <row r="17" spans="3:24">
-      <c r="C17" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="74"/>
-    </row>
-    <row r="18" spans="3:24">
-      <c r="C18" s="82"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="77"/>
-    </row>
-    <row r="19" spans="3:24">
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-    </row>
-    <row r="20" spans="3:24">
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-    </row>
-    <row r="22" spans="3:24">
-      <c r="C22" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24">
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="49"/>
-    </row>
-    <row r="24" spans="3:24">
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="50"/>
-    </row>
-    <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="50"/>
-    </row>
-    <row r="26" spans="3:24">
-      <c r="C26" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="64"/>
-    </row>
-    <row r="27" spans="3:24">
-      <c r="C27" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="65"/>
-    </row>
-    <row r="28" spans="3:24">
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="3:24">
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="43"/>
-    </row>
-    <row r="30" spans="3:24">
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="43"/>
-    </row>
-    <row r="31" spans="3:24">
-      <c r="C31" s="41"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="43"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-    </row>
-    <row r="32" spans="3:24">
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="43"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-    </row>
-    <row r="33" spans="3:24">
-      <c r="C33" s="41"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="43"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-    </row>
-    <row r="34" spans="3:24">
-      <c r="C34" s="41"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-      <c r="L34" s="43"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-    </row>
-    <row r="35" spans="3:24">
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="43"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-    </row>
-    <row r="36" spans="3:24">
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="43"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-    </row>
-    <row r="37" spans="3:24">
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-    </row>
-    <row r="38" spans="3:24">
-      <c r="C38" s="41"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43"/>
-    </row>
-    <row r="39" spans="3:24">
-      <c r="C39" s="41"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="43"/>
-    </row>
-    <row r="40" spans="3:24">
-      <c r="C40" s="41"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="43"/>
-    </row>
-    <row r="41" spans="3:24">
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="43"/>
-    </row>
-    <row r="42" spans="3:24">
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="43"/>
-    </row>
-    <row r="43" spans="3:24">
-      <c r="C43" s="44"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="46"/>
-    </row>
-    <row r="44" spans="3:24">
-      <c r="C44" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="59"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="59"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="65"/>
-    </row>
-    <row r="45" spans="3:24">
-      <c r="C45" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="3:24">
-      <c r="C46" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K46" s="59"/>
-      <c r="L46" s="65"/>
-    </row>
-    <row r="47" spans="3:24">
-      <c r="C47" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="59"/>
-      <c r="L47" s="65"/>
-    </row>
-    <row r="48" spans="3:24">
-      <c r="C48" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="59"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="3:12">
-      <c r="C49" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="59"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="65"/>
-    </row>
-    <row r="50" spans="3:12">
-      <c r="C50" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="3:12">
-      <c r="C51" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="3:12">
-      <c r="C52" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="59"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="K52" s="59"/>
-      <c r="L52" s="65"/>
-    </row>
-    <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C54" s="160" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="162"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C55" s="160" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="13"/>
-    </row>
-    <row r="56" spans="3:12">
-      <c r="C56" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="59"/>
-      <c r="K56" s="59"/>
-      <c r="L56" s="65"/>
-    </row>
-    <row r="57" spans="3:12">
-      <c r="C57" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="66" t="s">
+    <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
+    <row r="2" spans="3:16" ht="33" thickTop="1">
+      <c r="C2" s="163" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+    </row>
+    <row r="3" spans="3:16" ht="32.25">
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="165"/>
+    </row>
+    <row r="4" spans="3:16" ht="32.25">
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="166"/>
+      <c r="O4" s="166"/>
+      <c r="P4" s="165"/>
+    </row>
+    <row r="5" spans="3:16" ht="32.25">
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="165"/>
+    </row>
+    <row r="6" spans="3:16" ht="33" thickBot="1">
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="165"/>
+    </row>
+    <row r="7" spans="3:16" ht="33" thickTop="1">
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="165"/>
+    </row>
+    <row r="8" spans="3:16" ht="24">
+      <c r="E8" s="168" t="s">
         <v>112</v>
       </c>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="59"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" s="59"/>
-      <c r="L58" s="65"/>
-    </row>
-    <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="160" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="161"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J59" s="15"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="13"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="J58:L58"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="C28:L43"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+  <mergeCells count="2">
+    <mergeCell ref="C2:O6"/>
+    <mergeCell ref="E8:M8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5730,29 +4994,30 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:J11"/>
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="40.625" customWidth="1"/>
     <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="63"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5764,202 +5029,193 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="169">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="79"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A4" s="110"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A9" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="95" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
+    </row>
+    <row r="10" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A10" s="90"/>
+      <c r="B10" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="93"/>
+      <c r="D10" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="91"/>
+      <c r="B11" s="92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="93"/>
+      <c r="D11" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="50"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="97" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="65"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="97" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="65"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="65"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="106"/>
-      <c r="B10" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="66" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="108"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="100"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="107"/>
-      <c r="B11" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="109" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="100"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="97" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="100"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="97"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="90"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -5976,6 +5232,17 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5983,29 +5250,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
-  <dimension ref="A1:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="C5" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="C6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="45"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="47"/>
+    </row>
+    <row r="9" spans="1:19" ht="18.75" customHeight="1">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="47"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="47"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="50"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="53"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="C15" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+    </row>
+    <row r="17" spans="3:24">
+      <c r="C17" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+    </row>
+    <row r="18" spans="3:24">
+      <c r="C18" s="46"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+    </row>
+    <row r="19" spans="3:24">
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+    </row>
+    <row r="20" spans="3:24">
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="3:24" ht="19.5" thickBot="1">
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="3:24">
+      <c r="C22" s="81" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="86" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="63"/>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24">
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="65"/>
+      <c r="H23" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="I23" s="65"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="79"/>
+    </row>
+    <row r="24" spans="3:24">
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="80"/>
+    </row>
+    <row r="25" spans="3:24" ht="19.5" thickBot="1">
+      <c r="C25" s="84"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="80"/>
+    </row>
+    <row r="26" spans="3:24">
+      <c r="C26" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+    </row>
+    <row r="27" spans="3:24">
+      <c r="C27" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="3:24">
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+    </row>
+    <row r="29" spans="3:24">
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+    </row>
+    <row r="30" spans="3:24">
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+    </row>
+    <row r="31" spans="3:24">
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="40"/>
+    </row>
+    <row r="32" spans="3:24">
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+    </row>
+    <row r="33" spans="3:24">
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" spans="3:24">
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+    </row>
+    <row r="35" spans="3:24">
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40"/>
+    </row>
+    <row r="36" spans="3:24">
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="3:24">
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+    </row>
+    <row r="38" spans="3:24">
+      <c r="C38" s="71"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
+    </row>
+    <row r="39" spans="3:24">
+      <c r="C39" s="71"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="73"/>
+    </row>
+    <row r="40" spans="3:24">
+      <c r="C40" s="71"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="73"/>
+    </row>
+    <row r="41" spans="3:24">
+      <c r="C41" s="71"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="73"/>
+    </row>
+    <row r="42" spans="3:24">
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="73"/>
+    </row>
+    <row r="43" spans="3:24">
+      <c r="C43" s="74"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="75"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="76"/>
+    </row>
+    <row r="44" spans="3:24">
+      <c r="C44" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="37"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K46" s="32"/>
+      <c r="L46" s="37"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J47" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K47" s="32"/>
+      <c r="L47" s="37"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K48" s="10"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J49" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="37"/>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K50" s="10"/>
+      <c r="L50" s="12"/>
+    </row>
+    <row r="51" spans="3:12">
+      <c r="C51" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51" s="10"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="32"/>
+      <c r="L52" s="37"/>
+    </row>
+    <row r="53" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C53" s="55"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="K53" s="11"/>
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C54" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="13"/>
+    </row>
+    <row r="55" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C55" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J55" s="15"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="37"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C58" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" s="32"/>
+      <c r="L58" s="37"/>
+    </row>
+    <row r="59" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C59" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J59" s="15"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="78">
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P36:R37"/>
+    <mergeCell ref="N36:O37"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="C28:L43"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C56:L56"/>
+    <mergeCell ref="F57:J57"/>
+    <mergeCell ref="J58:L58"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DE094B-4402-4F9F-9A1C-347161DFFA90}">
+  <dimension ref="A1:J55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="121" t="s">
+      <c r="A1" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123" t="s">
+      <c r="E1" s="159"/>
+      <c r="F1" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="122"/>
+      <c r="G1" s="159"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -6017,44 +6394,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="116"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="124" t="s">
+      <c r="A2" s="153"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="110"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="169">
+        <v>45632</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="148"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="116"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="111"/>
+      <c r="A3" s="153"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="149"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="118"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="112"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="150"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -6068,13 +6447,13 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
+      <c r="A6" s="132" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="133"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -6082,48 +6461,48 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="130" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="131"/>
-      <c r="C7" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="131"/>
-      <c r="E7" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="135"/>
+      <c r="A7" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="139"/>
+      <c r="E7" s="140" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="141"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="136" t="s">
+      <c r="A8" s="134" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="135"/>
+      <c r="C8" s="142" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="143"/>
+      <c r="E8" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="136" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="140"/>
+      <c r="F8" s="146"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="141"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="147"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6154,13 +6533,13 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
+      <c r="A12" s="132" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="133"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
@@ -6168,64 +6547,64 @@
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="130"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="148"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="147" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="F13" s="149"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="145" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="144"/>
+      <c r="A14" s="127" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="125"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="125"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="150" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="151"/>
-      <c r="F15" s="157"/>
+      <c r="A15" s="114" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="120" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="115"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="154"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="158" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="154"/>
-      <c r="F16" s="159"/>
+      <c r="A16" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="118"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="122" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="118"/>
+      <c r="F16" s="123"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -6259,12 +6638,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="132" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
+      <c r="D19" s="113" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -6535,23 +6914,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -6560,6 +6922,23 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(編集).xlsx
+++ b/プロジェクト型演習_成果物(編集).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F29449-C8BB-45CC-8ABB-136576368771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9011A6-076D-481B-A2B6-7D4794DAACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -977,6 +977,17 @@
     </rPh>
     <rPh sb="154" eb="156">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2167,7 +2178,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2261,8 +2272,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2270,60 +2413,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2331,6 +2489,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2342,276 +2518,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,6 +2527,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2657,26 +2566,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2701,15 +2718,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>579892</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>598942</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>641748</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:colOff>660798</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2737,12 +2754,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1951492" y="6848475"/>
+          <a:off x="1970542" y="6562725"/>
           <a:ext cx="5548256" cy="1924049"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>68810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B9BF35-168C-F420-8553-7C393F2C48F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1676401" y="8410574"/>
+          <a:ext cx="2343149" cy="2869161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654313</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72DB2E4A-0DD2-A4AC-ABC1-61A9CEDE4FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4419601" y="8496300"/>
+          <a:ext cx="2406912" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4863,121 +5002,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E913E7AF-7189-4835-9B19-3E9AA40635FD}">
   <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:16" ht="33" thickTop="1">
-      <c r="C2" s="163" t="s">
+      <c r="C2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="33"/>
     </row>
     <row r="3" spans="3:16" ht="32.25">
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="165"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="3:16" ht="32.25">
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="165"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="3:16" ht="32.25">
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="165"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="33"/>
     </row>
     <row r="6" spans="3:16" ht="33" thickBot="1">
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="165"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" ht="33" thickTop="1">
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="165"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" ht="24">
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="166"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5005,19 +5144,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="86" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="86" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="63"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5029,193 +5168,204 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="64" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="169">
+      <c r="E2" s="48"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="53">
         <v>45632</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="107"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="94" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="61"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="38" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="37"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="38" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="37"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="83"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="38" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="37"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="95" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="97"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="90"/>
-      <c r="B10" s="92" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="97"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="91"/>
-      <c r="B11" s="92" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="95" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="97"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="38" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="97"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D1:E1"/>
@@ -5232,17 +5382,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5251,391 +5390,391 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
-  <dimension ref="A1:X59"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41" t="s">
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="100"/>
+      <c r="R5" s="100"/>
+      <c r="S5" s="100"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="43" t="s">
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="41" t="s">
+      <c r="J6" s="95"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="100"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="100"/>
+      <c r="S6" s="100"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="51" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="45"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="96"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="47"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="105"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="47"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="105"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="47"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="105"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="47"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="105"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="50"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="99"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41" t="s">
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41" t="s">
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+      <c r="S13" s="100"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="52" t="s">
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="41" t="s">
+      <c r="J14" s="102"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+      <c r="S14" s="100"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41" t="s">
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41" t="s">
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41" t="s">
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+      <c r="S15" s="100"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41" t="s">
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="100"/>
+      <c r="R16" s="100"/>
+      <c r="S16" s="100"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="43" t="s">
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="43" t="s">
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="51" t="s">
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="96"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="46"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="50"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="99"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="48"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="41" t="s">
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41" t="s">
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41" t="s">
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="86" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="86" t="s">
+      <c r="G22" s="46"/>
+      <c r="H22" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="63"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5647,642 +5786,864 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="84"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="64" t="s">
+      <c r="C23" s="70"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="64" t="s">
+      <c r="G23" s="48"/>
+      <c r="H23" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="79"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="57"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="80"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="58"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="80"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="58"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="59" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="75"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="82"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="37"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="68"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="70"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="165"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="168"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="71"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="168"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="168"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="71"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="168"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
       <c r="P33" s="87"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
+      <c r="C34" s="166"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="168"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40"/>
+      <c r="C35" s="166"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="168"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="42"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="42"/>
+      <c r="C36" s="166"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="168"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+      <c r="R36" s="31"/>
+      <c r="T36" s="31"/>
+      <c r="U36" s="31"/>
+      <c r="V36" s="31"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="31"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="71"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="42"/>
+      <c r="C37" s="166"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="168"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="31"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="71"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="168"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="71"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="73"/>
+      <c r="C39" s="166"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="168"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="86"/>
+      <c r="Q39" s="86"/>
+      <c r="R39" s="86"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="71"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="73"/>
+      <c r="C40" s="166"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="168"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="86"/>
+      <c r="Q40" s="86"/>
+      <c r="R40" s="86"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="73"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="167"/>
+      <c r="L41" s="168"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="86"/>
+      <c r="Q41" s="86"/>
+      <c r="R41" s="86"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="73"/>
+      <c r="C42" s="166"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="167"/>
+      <c r="L42" s="168"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="168"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="166"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="167"/>
+      <c r="K44" s="167"/>
+      <c r="L44" s="168"/>
+    </row>
+    <row r="45" spans="3:24">
+      <c r="C45" s="166"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="167"/>
+      <c r="K45" s="167"/>
+      <c r="L45" s="168"/>
+    </row>
+    <row r="46" spans="3:24">
+      <c r="C46" s="166"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="167"/>
+      <c r="K46" s="167"/>
+      <c r="L46" s="168"/>
+    </row>
+    <row r="47" spans="3:24">
+      <c r="C47" s="166"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="167"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="167"/>
+      <c r="L47" s="168"/>
+    </row>
+    <row r="48" spans="3:24">
+      <c r="C48" s="169"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="171"/>
+    </row>
+    <row r="49" spans="3:12">
+      <c r="C49" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="37"/>
-    </row>
-    <row r="45" spans="3:24">
-      <c r="C45" s="31" t="s">
+      <c r="D49" s="76"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="83"/>
+    </row>
+    <row r="50" spans="3:12">
+      <c r="C50" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="38" t="s">
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="4" t="s">
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L50" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="3:24">
-      <c r="C46" s="31" t="s">
+    <row r="51" spans="3:12">
+      <c r="C51" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="4" t="s">
+      <c r="D51" s="76"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H51" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J51" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="K46" s="32"/>
-      <c r="L46" s="37"/>
-    </row>
-    <row r="47" spans="3:24">
-      <c r="C47" s="58" t="s">
+      <c r="K51" s="76"/>
+      <c r="L51" s="83"/>
+    </row>
+    <row r="52" spans="3:12">
+      <c r="C52" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="37"/>
-    </row>
-    <row r="48" spans="3:24">
-      <c r="C48" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="3:12">
-      <c r="C49" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="37"/>
-    </row>
-    <row r="50" spans="3:12">
-      <c r="C50" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="3:12">
-      <c r="C51" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="12"/>
-    </row>
-    <row r="52" spans="3:12">
-      <c r="C52" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52" s="76"/>
+      <c r="L52" s="83"/>
+    </row>
+    <row r="53" spans="3:12">
+      <c r="C53" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="76"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" s="10"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="76"/>
+      <c r="L54" s="83"/>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="76"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="10"/>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" s="76"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="38" t="s">
+      <c r="I57" s="7"/>
+      <c r="J57" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="K52" s="32"/>
-      <c r="L52" s="37"/>
-    </row>
-    <row r="53" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="15" t="s">
+      <c r="K57" s="76"/>
+      <c r="L57" s="83"/>
+    </row>
+    <row r="58" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C58" s="110"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="K53" s="11"/>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C54" s="34" t="s">
+      <c r="K58" s="11"/>
+      <c r="L58" s="13"/>
+    </row>
+    <row r="59" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C59" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C55" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="13"/>
-    </row>
-    <row r="56" spans="3:12">
-      <c r="C56" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="37"/>
-    </row>
-    <row r="57" spans="3:12">
-      <c r="C57" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J58" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58" s="32"/>
-      <c r="L58" s="37"/>
-    </row>
-    <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="109"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H59" s="9"/>
+        <v>105</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>105</v>
+      </c>
       <c r="I59" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="11"/>
       <c r="L59" s="13"/>
     </row>
+    <row r="60" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C60" s="107" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="108"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" s="15"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="3:12">
+      <c r="C61" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="76"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="76"/>
+      <c r="G61" s="76"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+      <c r="J61" s="76"/>
+      <c r="K61" s="76"/>
+      <c r="L61" s="83"/>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="C62" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="76"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C63" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="76"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K63" s="76"/>
+      <c r="L63" s="83"/>
+    </row>
+    <row r="64" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C64" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="108"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J64" s="15"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="76"/>
+      <c r="E65" s="76"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="83"/>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="C66" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C67" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="76"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K67" s="76"/>
+      <c r="L67" s="83"/>
+    </row>
+    <row r="68" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C68" s="107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="108"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J68" s="15"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P36:R37"/>
-    <mergeCell ref="N36:O37"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+  <mergeCells count="83">
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H18"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="F23:G25"/>
     <mergeCell ref="H23:I25"/>
-    <mergeCell ref="C28:L43"/>
     <mergeCell ref="N31:O31"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="N33:O33"/>
@@ -6294,61 +6655,15 @@
     <mergeCell ref="C22:E25"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C44:L44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H18"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C56:L56"/>
-    <mergeCell ref="F57:J57"/>
-    <mergeCell ref="J58:L58"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="N38:O41"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6370,19 +6685,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="158" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="160" t="s">
+      <c r="E1" s="125"/>
+      <c r="F1" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="159"/>
+      <c r="G1" s="125"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -6394,46 +6709,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="153"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="161" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="169">
+      <c r="E2" s="48"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="53">
         <v>45632</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="148"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="153"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="149"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="155"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="150"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="115"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -6447,62 +6762,62 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="133"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="138" t="s">
+      <c r="A7" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="139"/>
-      <c r="C7" s="140" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="139"/>
-      <c r="E7" s="140" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="141"/>
+      <c r="F7" s="138"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="142" t="s">
+      <c r="B8" s="130"/>
+      <c r="C8" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="143"/>
-      <c r="E8" s="142" t="s">
+      <c r="D8" s="140"/>
+      <c r="E8" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="146"/>
+      <c r="F8" s="143"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="147"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="144"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6533,78 +6848,78 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="133"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="150" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="129" t="s">
+      <c r="B13" s="151"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="150" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="152"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="124" t="s">
+      <c r="B14" s="146"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="120" t="s">
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="159" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="115"/>
-      <c r="F15" s="121"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="160"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="156" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="122" t="s">
+      <c r="B16" s="157"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="118"/>
-      <c r="F16" s="123"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -6638,12 +6953,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="113" t="s">
+      <c r="D19" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -6914,6 +7229,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -6922,23 +7254,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(編集).xlsx
+++ b/プロジェクト型演習_成果物(編集).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9011A6-076D-481B-A2B6-7D4794DAACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A9FBC-FCE5-4016-9BD0-A279FE8C32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
   <si>
     <t>プロジェクト演習
 タスク編集機能</t>
@@ -591,34 +591,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスクの編集を行い、成功したら完了画面へ遷移する。失敗したらエラー画面に移行する</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品企画部　従業員</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンキカク</t>
@@ -632,29 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスク変更完了画面に遷移し、データベース上にてタスクテーブルの内容が変更される</t>
-    <rPh sb="3" eb="9">
-      <t>ヘンコウカンリョウガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細クラス図</t>
   </si>
   <si>
@@ -749,67 +698,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク名に50文字以上の文字が入力される
-メモに100文字以上の文字が入力される
-期限への入力を行う際に過去の期限を選択する
-タスク名に空文字が入力される</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>カラモジ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※1　詳細画面で表示した値を設定する</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -861,36 +749,132 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
+    <t>menu.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューに戻る</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集された内容がデータベースに正常に保存されれば完了画面へ遷移し、入力内容に不備があればエラー画面を表示する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ログインが済んでいる事　ログイン者がタスク詳細画面からタスク変更画面に遷移する際にそのタスクの担当者である事</t>
-    <rPh sb="5" eb="6">
-      <t>ス</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ショウサイガメン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 担当者ではない場合はタスク編集画面への遷移に制限をかける</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更内容を入力しなかった場合、変更を行わず一覧リストに戻る</t>
+    <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
     </rPh>
-    <rPh sb="32" eb="34">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名に50文字以上の文字を入力する場合:「タスク名は50文字以内で入力してください」というエラーメッセージを表示し、エラー箇所を赤枠でハイライト。
+メモに100文字以上の文字を入力する場合:「メモは100文字以内で入力してください」というエラーメッセージを表示。
+期限への入力を行う際に過去の期限を選択する場合:「期限は未来の日付を指定してください」と表示。
+タスク名に空文字が入力される場合:タスク名が空の場合：「タスク名は必須項目です」とエラー表示。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
       <t>サイ</t>
     </rPh>
-    <rPh sb="47" eb="50">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>コト</t>
+    <rPh sb="145" eb="147">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>カラモジ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="196" eb="198">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -898,6 +882,7 @@
     <t xml:space="preserve">ログイン者が、自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
 タスク詳細画面にて情報を確認したのち、タスク変更画面へと遷移するボタンを押す
 タスク変更画面にて①タスク名②カテゴリー情報③期限④担当者情報⑤ステータス情報⑥メモに変更内容を入力する
+①②④⑤は入力必須であり、③、⑥は入力必須ではない
 変更ボタンを押下し、タスク変更完了画面へと遷移する
 </t>
     <rPh sb="4" eb="5">
@@ -966,28 +951,77 @@
     <rPh sb="128" eb="130">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="133" eb="135">
+    <rPh sb="138" eb="142">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <rPh sb="150" eb="154">
+      <t>ニュウリョクヒッス</t>
+    </rPh>
+    <rPh sb="159" eb="161">
       <t>ヘンコウ</t>
     </rPh>
-    <rPh sb="139" eb="141">
+    <rPh sb="165" eb="167">
       <t>オウカ</t>
     </rPh>
-    <rPh sb="146" eb="152">
+    <rPh sb="172" eb="178">
       <t>ヘンコウカンリョウガメン</t>
     </rPh>
-    <rPh sb="154" eb="156">
+    <rPh sb="180" eb="182">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>menu.jsp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニューに戻る</t>
-    <rPh sb="5" eb="6">
-      <t>モド</t>
+    <t>タスク変更完了画面に遷移し、データベース上にてタスクテーブルの内容が変更を行う
+変更が成功した場合は変更成功画面へ遷移する
+変更が失敗した場合は変更失敗画面へ遷移する</t>
+    <rPh sb="3" eb="9">
+      <t>ヘンコウカンリョウガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="50" eb="56">
+      <t>ヘンコウセイコウガメン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="72" eb="78">
+      <t>ヘンコウシッパイガメン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1106,7 +1140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="93">
     <border>
       <left/>
       <right/>
@@ -2171,6 +2205,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2178,7 +2223,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,6 +2329,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2296,6 +2368,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2359,27 +2479,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2404,119 +2506,194 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="89" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2527,9 +2704,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2566,134 +2740,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5008,85 +5071,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="19.5" thickBot="1"/>
     <row r="2" spans="3:16" ht="33" thickTop="1">
-      <c r="C2" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="C2" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="3:16" ht="32.25">
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
       <c r="P3" s="33"/>
     </row>
     <row r="4" spans="3:16" ht="32.25">
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
       <c r="P4" s="33"/>
     </row>
     <row r="5" spans="3:16" ht="32.25">
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="33"/>
     </row>
     <row r="6" spans="3:16" ht="33" thickBot="1">
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="33"/>
     </row>
     <row r="7" spans="3:16" ht="33" thickTop="1">
@@ -5106,17 +5169,17 @@
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="3:16" ht="24">
-      <c r="E8" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
+      <c r="E8" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5130,10 +5193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5144,19 +5207,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="45" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="71"/>
+      <c r="F1" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="46"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5168,206 +5231,209 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="47" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="53">
+      <c r="E2" s="73"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="78">
         <v>45632</v>
       </c>
-      <c r="I2" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="57"/>
+      <c r="I2" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="59"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="84"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="81" t="s">
+      <c r="B5" s="57"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="82"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="64" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="83"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="83"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="172" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="64" t="s">
+      <c r="B8" s="173"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="63"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="175"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="83"/>
-    </row>
-    <row r="9" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A9" s="78" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="60"/>
+    </row>
+    <row r="10" spans="1:10" ht="141" customHeight="1">
+      <c r="A10" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="84" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="66"/>
-    </row>
-    <row r="10" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A10" s="79"/>
-      <c r="B10" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="80"/>
-      <c r="B11" s="60" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A12" s="53"/>
+      <c r="B12" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="66"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="62" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:10" ht="96.75" customHeight="1">
+      <c r="A13" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="39" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A14" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:J13"/>
+  <mergeCells count="28">
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
@@ -5375,13 +5441,25 @@
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
-    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:J13"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5392,27 +5470,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE3C090-186F-4CA2-AD66-6967D9C59DC5}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
     </row>
     <row r="5" spans="1:19">
       <c r="C5" s="100" t="s">
@@ -5452,13 +5530,13 @@
       </c>
       <c r="G6" s="100"/>
       <c r="H6" s="100"/>
-      <c r="I6" s="106" t="s">
+      <c r="I6" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="95"/>
-      <c r="K6" s="96"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="103"/>
       <c r="L6" s="100" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M6" s="100"/>
       <c r="N6" s="100"/>
@@ -5476,18 +5554,18 @@
       <c r="G7" s="100"/>
       <c r="H7" s="100"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="85"/>
+      <c r="J7" s="99"/>
       <c r="K7" s="105"/>
-      <c r="L7" s="94" t="s">
+      <c r="L7" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="96"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="103"/>
     </row>
     <row r="8" spans="1:19">
       <c r="C8" s="100"/>
@@ -5497,15 +5575,15 @@
       <c r="G8" s="100"/>
       <c r="H8" s="100"/>
       <c r="I8" s="104"/>
-      <c r="J8" s="85"/>
+      <c r="J8" s="99"/>
       <c r="K8" s="105"/>
       <c r="L8" s="104"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
       <c r="S8" s="105"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
@@ -5516,15 +5594,15 @@
       <c r="G9" s="100"/>
       <c r="H9" s="100"/>
       <c r="I9" s="104"/>
-      <c r="J9" s="85"/>
+      <c r="J9" s="99"/>
       <c r="K9" s="105"/>
       <c r="L9" s="104"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="85"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
       <c r="S9" s="105"/>
     </row>
     <row r="10" spans="1:19">
@@ -5535,15 +5613,15 @@
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
       <c r="I10" s="104"/>
-      <c r="J10" s="85"/>
+      <c r="J10" s="99"/>
       <c r="K10" s="105"/>
       <c r="L10" s="104"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
       <c r="S10" s="105"/>
     </row>
     <row r="11" spans="1:19">
@@ -5554,15 +5632,15 @@
       <c r="G11" s="100"/>
       <c r="H11" s="100"/>
       <c r="I11" s="104"/>
-      <c r="J11" s="85"/>
+      <c r="J11" s="99"/>
       <c r="K11" s="105"/>
       <c r="L11" s="104"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
       <c r="S11" s="105"/>
     </row>
     <row r="12" spans="1:19">
@@ -5572,17 +5650,17 @@
       <c r="F12" s="100"/>
       <c r="G12" s="100"/>
       <c r="H12" s="100"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="99"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="107"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
     </row>
     <row r="13" spans="1:19">
       <c r="C13" s="100"/>
@@ -5614,11 +5692,11 @@
       <c r="F14" s="100"/>
       <c r="G14" s="100"/>
       <c r="H14" s="100"/>
-      <c r="I14" s="101" t="s">
+      <c r="I14" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="102"/>
-      <c r="K14" s="103"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="100" t="s">
         <v>18</v>
       </c>
@@ -5681,55 +5759,55 @@
       <c r="S16" s="100"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="106" t="s">
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="106" t="s">
+      <c r="G17" s="102"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="94" t="s">
+      <c r="J17" s="102"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="96"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="103"/>
     </row>
     <row r="18" spans="3:24">
       <c r="C18" s="104"/>
-      <c r="D18" s="85"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="105"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="99"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="100" t="s">
         <v>13</v>
       </c>
@@ -5752,29 +5830,29 @@
       <c r="S19" s="100"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="45" t="s">
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="71"/>
+      <c r="H22" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="46"/>
+      <c r="I22" s="71"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5786,217 +5864,217 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="47" t="s">
+      <c r="C23" s="89"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="48"/>
-      <c r="H23" s="47" t="s">
+      <c r="G23" s="73"/>
+      <c r="H23" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="82"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="58"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="83"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="58"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="91" t="s">
+      <c r="D26" s="57"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="82"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="58"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="83"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="60"/>
     </row>
     <row r="28" spans="3:24">
-      <c r="C28" s="163"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="165"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
     </row>
     <row r="29" spans="3:24">
-      <c r="C29" s="166"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="168"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="3:24">
-      <c r="C30" s="166"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="168"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
     </row>
     <row r="31" spans="3:24">
-      <c r="C31" s="166"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="168"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="99"/>
+      <c r="T31" s="99"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
     </row>
     <row r="32" spans="3:24">
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="168"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="99"/>
     </row>
     <row r="33" spans="3:24">
-      <c r="C33" s="166"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="168"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="99"/>
+      <c r="R33" s="99"/>
     </row>
     <row r="34" spans="3:24">
-      <c r="C34" s="166"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="168"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="40"/>
+      <c r="N34" s="99"/>
+      <c r="O34" s="99"/>
+      <c r="P34" s="99"/>
+      <c r="Q34" s="99"/>
+      <c r="R34" s="99"/>
     </row>
     <row r="35" spans="3:24">
-      <c r="C35" s="166"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="168"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="85"/>
-      <c r="X35" s="85"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="40"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="T35" s="99"/>
+      <c r="U35" s="99"/>
+      <c r="V35" s="99"/>
+      <c r="W35" s="99"/>
+      <c r="X35" s="99"/>
     </row>
     <row r="36" spans="3:24">
-      <c r="C36" s="166"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="168"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="40"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
@@ -6009,16 +6087,16 @@
       <c r="X36" s="31"/>
     </row>
     <row r="37" spans="3:24">
-      <c r="C37" s="166"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="168"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="40"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
       <c r="P37" s="31"/>
@@ -6031,84 +6109,84 @@
       <c r="X37" s="31"/>
     </row>
     <row r="38" spans="3:24">
-      <c r="C38" s="166"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="168"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="86"/>
-      <c r="Q38" s="86"/>
-      <c r="R38" s="86"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="40"/>
+      <c r="N38" s="99"/>
+      <c r="O38" s="99"/>
+      <c r="P38" s="113"/>
+      <c r="Q38" s="113"/>
+      <c r="R38" s="113"/>
     </row>
     <row r="39" spans="3:24">
-      <c r="C39" s="166"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="168"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="85"/>
-      <c r="P39" s="86"/>
-      <c r="Q39" s="86"/>
-      <c r="R39" s="86"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="40"/>
+      <c r="N39" s="99"/>
+      <c r="O39" s="99"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
     </row>
     <row r="40" spans="3:24">
-      <c r="C40" s="166"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="168"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="40"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="113"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
     </row>
     <row r="41" spans="3:24">
-      <c r="C41" s="166"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="168"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="86"/>
-      <c r="Q41" s="86"/>
-      <c r="R41" s="86"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="40"/>
+      <c r="N41" s="99"/>
+      <c r="O41" s="99"/>
+      <c r="P41" s="113"/>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="113"/>
     </row>
     <row r="42" spans="3:24">
-      <c r="C42" s="166"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="168"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="40"/>
       <c r="N42" s="31"/>
       <c r="O42" s="31"/>
       <c r="P42" s="32"/>
@@ -6116,104 +6194,104 @@
       <c r="R42" s="32"/>
     </row>
     <row r="43" spans="3:24">
-      <c r="C43" s="166"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="168"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="40"/>
     </row>
     <row r="44" spans="3:24">
-      <c r="C44" s="166"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="168"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
     </row>
     <row r="45" spans="3:24">
-      <c r="C45" s="166"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167"/>
-      <c r="K45" s="167"/>
-      <c r="L45" s="168"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="40"/>
     </row>
     <row r="46" spans="3:24">
-      <c r="C46" s="166"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="168"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40"/>
     </row>
     <row r="47" spans="3:24">
-      <c r="C47" s="166"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="168"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="40"/>
     </row>
     <row r="48" spans="3:24">
-      <c r="C48" s="169"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="171"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="43"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="90" t="s">
+      <c r="C49" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="76"/>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="83"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="49"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="60"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="64" t="s">
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="77"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="49"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="50"/>
       <c r="K50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6222,11 +6300,11 @@
       </c>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="90" t="s">
+      <c r="C51" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="76"/>
-      <c r="E51" s="77"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="50"/>
       <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
@@ -6239,18 +6317,18 @@
       <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="92" t="s">
+      <c r="J51" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="76"/>
-      <c r="L51" s="83"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="60"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="89" t="s">
+      <c r="C52" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="77"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="50"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
@@ -6261,18 +6339,18 @@
       <c r="I52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="64" t="s">
+      <c r="J52" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="76"/>
-      <c r="L52" s="83"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="60"/>
     </row>
     <row r="53" spans="3:12">
-      <c r="C53" s="89" t="s">
+      <c r="C53" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="77"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="50"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
         <v>53</v>
@@ -6290,11 +6368,11 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="77"/>
+      <c r="D54" s="49"/>
+      <c r="E54" s="50"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
         <v>55</v>
@@ -6305,18 +6383,18 @@
       <c r="I54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="64" t="s">
+      <c r="J54" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="76"/>
-      <c r="L54" s="83"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="60"/>
     </row>
     <row r="55" spans="3:12">
-      <c r="C55" s="89" t="s">
+      <c r="C55" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="77"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
         <v>53</v>
@@ -6334,11 +6412,11 @@
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="89" t="s">
+      <c r="C56" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="77"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
         <v>53</v>
@@ -6356,11 +6434,11 @@
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="3:12">
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="76"/>
-      <c r="E57" s="77"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
         <v>50</v>
@@ -6369,104 +6447,104 @@
         <v>60</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="64" t="s">
+      <c r="J57" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="76"/>
-      <c r="L57" s="83"/>
+      <c r="K57" s="49"/>
+      <c r="L57" s="60"/>
     </row>
     <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="110"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="112"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="111"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
       <c r="J58" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="108"/>
-      <c r="E59" s="109"/>
+      <c r="C59" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="95"/>
+      <c r="E59" s="96"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J59" s="15"/>
       <c r="K59" s="11"/>
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C60" s="107" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="108"/>
-      <c r="E60" s="109"/>
+      <c r="C60" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="95"/>
+      <c r="E60" s="96"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H60" s="9"/>
       <c r="I60" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J60" s="15"/>
       <c r="K60" s="11"/>
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="3:12">
-      <c r="C61" s="90" t="s">
+      <c r="C61" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="76"/>
-      <c r="G61" s="76"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="83"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="60"/>
     </row>
     <row r="62" spans="3:12">
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="76"/>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="77"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
+      <c r="I62" s="49"/>
+      <c r="J62" s="50"/>
       <c r="K62" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C63" s="90" t="s">
+      <c r="C63" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="76"/>
-      <c r="E63" s="77"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
@@ -6479,70 +6557,70 @@
       <c r="I63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="92" t="s">
+      <c r="J63" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="76"/>
-      <c r="L63" s="83"/>
+      <c r="K63" s="49"/>
+      <c r="L63" s="60"/>
     </row>
     <row r="64" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C64" s="107" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="108"/>
-      <c r="E64" s="109"/>
+      <c r="C64" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="95"/>
+      <c r="E64" s="96"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H64" s="9"/>
       <c r="I64" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="J64" s="15"/>
       <c r="K64" s="11"/>
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="3:12">
-      <c r="C65" s="90" t="s">
+      <c r="C65" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="76"/>
-      <c r="K65" s="76"/>
-      <c r="L65" s="83"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="60"/>
     </row>
     <row r="66" spans="3:12">
-      <c r="C66" s="90" t="s">
+      <c r="C66" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76"/>
-      <c r="J66" s="77"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="50"/>
       <c r="K66" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C67" s="90" t="s">
+      <c r="C67" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="50"/>
       <c r="F67" s="4" t="s">
         <v>37</v>
       </c>
@@ -6555,25 +6633,25 @@
       <c r="I67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="92" t="s">
+      <c r="J67" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="76"/>
-      <c r="L67" s="83"/>
+      <c r="K67" s="49"/>
+      <c r="L67" s="60"/>
     </row>
     <row r="68" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C68" s="107" t="s">
-        <v>116</v>
-      </c>
-      <c r="D68" s="108"/>
-      <c r="E68" s="109"/>
+      <c r="C68" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="95"/>
+      <c r="E68" s="96"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H68" s="9"/>
       <c r="I68" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J68" s="15"/>
       <c r="K68" s="11"/>
@@ -6581,18 +6659,61 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="N38:O41"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="I20:K20"/>
@@ -6609,61 +6730,18 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="N38:O41"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J67:L67"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6685,19 +6763,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="116" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="124" t="s">
+      <c r="A1" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="160"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="167" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126" t="s">
+      <c r="E1" s="168"/>
+      <c r="F1" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="125"/>
+      <c r="G1" s="168"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -6709,46 +6787,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="119"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="127" t="s">
+      <c r="A2" s="162"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="53">
+      <c r="E2" s="73"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="78">
         <v>45632</v>
       </c>
-      <c r="I2" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" s="113"/>
+      <c r="I2" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" s="157"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="119"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="114"/>
+      <c r="A3" s="162"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="158"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="121"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="115"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -6762,62 +6840,62 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="136"/>
+      <c r="A6" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="142"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="133" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="137" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="138"/>
+      <c r="A7" s="147" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="148"/>
+      <c r="C7" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="148"/>
+      <c r="E7" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="150"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="144"/>
+      <c r="C8" s="151" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="152"/>
+      <c r="E8" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="130"/>
-      <c r="C8" s="139" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="143"/>
+      <c r="F8" s="155"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="144"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="156"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6848,78 +6926,78 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="116" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="135"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="136"/>
+      <c r="A12" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="142"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="151"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="150" t="s">
-        <v>94</v>
-      </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
+      <c r="A13" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="136" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="145" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="153" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="159" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="160"/>
+      <c r="A15" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="129" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="124"/>
+      <c r="F15" s="130"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="156" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="158"/>
-      <c r="D16" s="161" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="162"/>
+      <c r="A16" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="127"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -6953,12 +7031,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
+      <c r="D19" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -7229,23 +7307,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -7254,6 +7315,23 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/プロジェクト型演習_成果物(編集).xlsx
+++ b/プロジェクト型演習_成果物(編集).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\ProjectX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A9FBC-FCE5-4016-9BD0-A279FE8C32F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F01182-61D3-4AB3-8675-74230941971B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{119CD6E2-1F39-4C8D-BA6D-B99AF8CA4844}"/>
   </bookViews>
@@ -806,79 +806,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タスク名に50文字以上の文字を入力する場合:「タスク名は50文字以内で入力してください」というエラーメッセージを表示し、エラー箇所を赤枠でハイライト。
-メモに100文字以上の文字を入力する場合:「メモは100文字以内で入力してください」というエラーメッセージを表示。
-期限への入力を行う際に過去の期限を選択する場合:「期限は未来の日付を指定してください」と表示。
-タスク名に空文字が入力される場合:タスク名が空の場合：「タスク名は必須項目です」とエラー表示。</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>モジイジョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="143" eb="144">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>カコ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>キゲン</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="185" eb="186">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="187" eb="190">
-      <t>カラモジ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="196" eb="198">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">ログイン者が、自分の担当タスクの横にあるボタンを押し、タスク詳細画面へと遷移する
 タスク詳細画面にて情報を確認したのち、タスク変更画面へと遷移するボタンを押す
 タスク変更画面にて①タスク名②カテゴリー情報③期限④担当者情報⑤ステータス情報⑥メモに変更内容を入力する
@@ -1022,6 +949,79 @@
     </rPh>
     <rPh sb="79" eb="81">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク名に50文字以上の文字を入力する場合:「タスク名は50文字以内で入力してください」というエラーメッセージを表示する。
+メモに100文字以上の文字を入力する場合:「メモは100文字以内で入力してください」というエラーメッセージを表示。
+期限への入力を行う際に過去の期限を選択する場合:「期限は未来の日付を指定してください」と表示。
+タスク名に空文字が入力される場合:タスク名が空の場合：「タスク名は必須項目です」とエラー表示。</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="173" eb="176">
+      <t>カラモジ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2368,9 +2368,117 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2386,18 +2494,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2407,104 +2506,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2513,42 +2597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2560,141 +2608,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="85" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2704,6 +2617,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2740,22 +2656,106 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="75" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="76" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="70" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="71" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5195,8 +5195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4538CB-88B1-4F00-BE8F-59AF7E88C672}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:J13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5207,19 +5207,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="70" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="71"/>
-      <c r="F1" s="70" t="s">
+      <c r="E1" s="55"/>
+      <c r="F1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="71"/>
+      <c r="G1" s="55"/>
       <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
@@ -5231,207 +5231,219 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="89"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="72" t="s">
+      <c r="A2" s="79"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="78">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45632</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="82"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="89"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="83"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="84"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="56" t="s">
+      <c r="B5" s="84"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="58"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="91"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="85"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="60"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="93"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="59" t="s">
+      <c r="B7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="60"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="172" t="s">
+      <c r="A8" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="59" t="s">
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="175"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="59" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="60"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="1:10" ht="141" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="61" t="s">
+      <c r="C10" s="70"/>
+      <c r="D10" s="73" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="75"/>
+    </row>
+    <row r="11" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A11" s="88"/>
+      <c r="B11" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="70"/>
+      <c r="D11" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
+    </row>
+    <row r="12" spans="1:10" ht="99.95" customHeight="1">
+      <c r="A12" s="89"/>
+      <c r="B12" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="70"/>
+      <c r="D12" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="75"/>
+    </row>
+    <row r="13" spans="1:10" ht="96.75" customHeight="1">
+      <c r="A13" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="59" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="12" spans="1:10" ht="99.95" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:10" ht="96.75" customHeight="1">
-      <c r="A13" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D1:E1"/>
@@ -5448,18 +5460,6 @@
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5477,382 +5477,382 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="C5" s="100" t="s">
+      <c r="C5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100" t="s">
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100" t="s">
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101" t="s">
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="102"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="100" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="100"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="114" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="102"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="103"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="111"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="105"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="119"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1">
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
-      <c r="O9" s="99"/>
-      <c r="P9" s="99"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="99"/>
-      <c r="S9" s="105"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
-      <c r="S10" s="105"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="101"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="120"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="105"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="120"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-      <c r="Q12" s="107"/>
-      <c r="R12" s="107"/>
-      <c r="S12" s="108"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="114"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100" t="s">
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100" t="s">
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="100"/>
-      <c r="R13" s="100"/>
-      <c r="S13" s="100"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
+      <c r="O13" s="115"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="115"/>
+      <c r="R13" s="115"/>
+      <c r="S13" s="115"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="115" t="s">
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="100" t="s">
+      <c r="J14" s="117"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="100"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="100"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100" t="s">
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100" t="s">
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="100"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100" t="s">
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100" t="s">
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="100"/>
-      <c r="Q16" s="100"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="100"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
     </row>
     <row r="17" spans="3:24">
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="101" t="s">
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="102"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="101" t="s">
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="114" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
-      <c r="S17" s="103"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="111"/>
     </row>
     <row r="18" spans="3:24">
-      <c r="C18" s="104"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="113"/>
+      <c r="N18" s="113"/>
+      <c r="O18" s="113"/>
+      <c r="P18" s="113"/>
+      <c r="Q18" s="113"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="114"/>
     </row>
     <row r="19" spans="3:24">
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="100" t="s">
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100" t="s">
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100" t="s">
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="100"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="115"/>
+      <c r="P19" s="115"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="115"/>
+      <c r="S19" s="115"/>
     </row>
     <row r="20" spans="3:24">
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
     </row>
     <row r="21" spans="3:24" ht="19.5" thickBot="1">
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
     </row>
     <row r="22" spans="3:24">
-      <c r="C22" s="120" t="s">
+      <c r="C22" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="70" t="s">
+      <c r="D22" s="77"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="70" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="71"/>
+      <c r="I22" s="55"/>
       <c r="J22" s="1" t="s">
         <v>28</v>
       </c>
@@ -5864,74 +5864,74 @@
       </c>
     </row>
     <row r="23" spans="3:24">
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="72" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="73"/>
-      <c r="H23" s="72" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="3:24">
-      <c r="C24" s="89"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="83"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="67"/>
     </row>
     <row r="25" spans="3:24" ht="19.5" thickBot="1">
-      <c r="C25" s="89"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="83"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="67"/>
     </row>
     <row r="26" spans="3:24">
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="118" t="s">
+      <c r="D26" s="84"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="91"/>
     </row>
     <row r="27" spans="3:24">
-      <c r="C27" s="97" t="s">
+      <c r="C27" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="60"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="93"/>
     </row>
     <row r="28" spans="3:24">
       <c r="C28" s="35"/>
@@ -5980,16 +5980,16 @@
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
       <c r="L31" s="40"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="99"/>
-      <c r="T31" s="99"/>
-      <c r="U31" s="99"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="99"/>
-      <c r="X31" s="99"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
+      <c r="V31" s="101"/>
+      <c r="W31" s="101"/>
+      <c r="X31" s="101"/>
     </row>
     <row r="32" spans="3:24">
       <c r="C32" s="38"/>
@@ -6002,11 +6002,11 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
       <c r="L32" s="40"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="99"/>
-      <c r="P32" s="99"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="99"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
     </row>
     <row r="33" spans="3:24">
       <c r="C33" s="38"/>
@@ -6019,11 +6019,11 @@
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
       <c r="L33" s="40"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="99"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="99"/>
-      <c r="R33" s="99"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
     </row>
     <row r="34" spans="3:24">
       <c r="C34" s="38"/>
@@ -6036,11 +6036,11 @@
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
       <c r="L34" s="40"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
     </row>
     <row r="35" spans="3:24">
       <c r="C35" s="38"/>
@@ -6053,16 +6053,16 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
       <c r="L35" s="40"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="99"/>
-      <c r="X35" s="99"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
+      <c r="V35" s="101"/>
+      <c r="W35" s="101"/>
+      <c r="X35" s="101"/>
     </row>
     <row r="36" spans="3:24">
       <c r="C36" s="38"/>
@@ -6119,11 +6119,11 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
       <c r="L38" s="40"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="113"/>
-      <c r="Q38" s="113"/>
-      <c r="R38" s="113"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
     </row>
     <row r="39" spans="3:24">
       <c r="C39" s="38"/>
@@ -6136,11 +6136,11 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
       <c r="L39" s="40"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
     </row>
     <row r="40" spans="3:24">
       <c r="C40" s="38"/>
@@ -6153,11 +6153,11 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
       <c r="L40" s="40"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="113"/>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="102"/>
+      <c r="Q40" s="102"/>
+      <c r="R40" s="102"/>
     </row>
     <row r="41" spans="3:24">
       <c r="C41" s="38"/>
@@ -6170,11 +6170,11 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
       <c r="L41" s="40"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="113"/>
-      <c r="R41" s="113"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="102"/>
     </row>
     <row r="42" spans="3:24">
       <c r="C42" s="38"/>
@@ -6266,32 +6266,32 @@
       <c r="L48" s="43"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" s="97" t="s">
+      <c r="C49" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="60"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="93"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" s="97" t="s">
+      <c r="C50" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="59" t="s">
+      <c r="D50" s="85"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="50"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="86"/>
       <c r="K50" s="4" t="s">
         <v>35</v>
       </c>
@@ -6300,11 +6300,11 @@
       </c>
     </row>
     <row r="51" spans="3:12">
-      <c r="C51" s="97" t="s">
+      <c r="C51" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="50"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="86"/>
       <c r="F51" s="4" t="s">
         <v>37</v>
       </c>
@@ -6317,18 +6317,18 @@
       <c r="I51" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J51" s="98" t="s">
+      <c r="J51" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="K51" s="49"/>
-      <c r="L51" s="60"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="93"/>
     </row>
     <row r="52" spans="3:12">
-      <c r="C52" s="112" t="s">
+      <c r="C52" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="86"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6" t="s">
         <v>50</v>
@@ -6339,18 +6339,18 @@
       <c r="I52" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J52" s="59" t="s">
+      <c r="J52" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="K52" s="49"/>
-      <c r="L52" s="60"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="93"/>
     </row>
     <row r="53" spans="3:12">
-      <c r="C53" s="112" t="s">
+      <c r="C53" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="86"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6" t="s">
         <v>53</v>
@@ -6368,11 +6368,11 @@
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="112" t="s">
+      <c r="C54" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="86"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6" t="s">
         <v>55</v>
@@ -6383,18 +6383,18 @@
       <c r="I54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="59" t="s">
+      <c r="J54" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="K54" s="49"/>
-      <c r="L54" s="60"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="93"/>
     </row>
     <row r="55" spans="3:12">
-      <c r="C55" s="112" t="s">
+      <c r="C55" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="86"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6" t="s">
         <v>53</v>
@@ -6412,11 +6412,11 @@
       <c r="L55" s="12"/>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="112" t="s">
+      <c r="C56" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="86"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6" t="s">
         <v>53</v>
@@ -6434,11 +6434,11 @@
       <c r="L56" s="12"/>
     </row>
     <row r="57" spans="3:12">
-      <c r="C57" s="112" t="s">
+      <c r="C57" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="86"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6" t="s">
         <v>50</v>
@@ -6447,16 +6447,16 @@
         <v>60</v>
       </c>
       <c r="I57" s="7"/>
-      <c r="J57" s="59" t="s">
+      <c r="J57" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="K57" s="49"/>
-      <c r="L57" s="60"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="93"/>
     </row>
     <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="109"/>
-      <c r="D58" s="110"/>
-      <c r="E58" s="111"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="126"/>
+      <c r="E58" s="127"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="9"/>
@@ -6468,11 +6468,11 @@
       <c r="L58" s="13"/>
     </row>
     <row r="59" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C59" s="94" t="s">
+      <c r="C59" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="95"/>
-      <c r="E59" s="96"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="124"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8" t="s">
         <v>101</v>
@@ -6488,11 +6488,11 @@
       <c r="L59" s="13"/>
     </row>
     <row r="60" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C60" s="94" t="s">
+      <c r="C60" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="D60" s="95"/>
-      <c r="E60" s="96"/>
+      <c r="D60" s="123"/>
+      <c r="E60" s="124"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8" t="s">
         <v>103</v>
@@ -6506,32 +6506,32 @@
       <c r="L60" s="13"/>
     </row>
     <row r="61" spans="3:12">
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
-      <c r="L61" s="60"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="93"/>
     </row>
     <row r="62" spans="3:12">
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="59" t="s">
+      <c r="D62" s="85"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="50"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="86"/>
       <c r="K62" s="4" t="s">
         <v>35</v>
       </c>
@@ -6540,11 +6540,11 @@
       </c>
     </row>
     <row r="63" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C63" s="97" t="s">
+      <c r="C63" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="86"/>
       <c r="F63" s="4" t="s">
         <v>37</v>
       </c>
@@ -6557,18 +6557,18 @@
       <c r="I63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J63" s="98" t="s">
+      <c r="J63" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="49"/>
-      <c r="L63" s="60"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="93"/>
     </row>
     <row r="64" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C64" s="94" t="s">
+      <c r="C64" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="95"/>
-      <c r="E64" s="96"/>
+      <c r="D64" s="123"/>
+      <c r="E64" s="124"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8" t="s">
         <v>103</v>
@@ -6582,32 +6582,32 @@
       <c r="L64" s="13"/>
     </row>
     <row r="65" spans="3:12">
-      <c r="C65" s="97" t="s">
+      <c r="C65" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="60"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="93"/>
     </row>
     <row r="66" spans="3:12">
-      <c r="C66" s="97" t="s">
+      <c r="C66" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="59" t="s">
+      <c r="D66" s="85"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="50"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="86"/>
       <c r="K66" s="4" t="s">
         <v>35</v>
       </c>
@@ -6616,11 +6616,11 @@
       </c>
     </row>
     <row r="67" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C67" s="97" t="s">
+      <c r="C67" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="50"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="86"/>
       <c r="F67" s="4" t="s">
         <v>37</v>
       </c>
@@ -6633,18 +6633,18 @@
       <c r="I67" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J67" s="98" t="s">
+      <c r="J67" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="K67" s="49"/>
-      <c r="L67" s="60"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="93"/>
     </row>
     <row r="68" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C68" s="94" t="s">
+      <c r="C68" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="D68" s="95"/>
-      <c r="E68" s="96"/>
+      <c r="D68" s="123"/>
+      <c r="E68" s="124"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8" t="s">
         <v>103</v>
@@ -6659,61 +6659,18 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P38:R41"/>
-    <mergeCell ref="N38:O41"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="C22:E25"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="T31:X31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="L23:L25"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:I25"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F26:L26"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="C49:L49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="F6:H14"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="L16:S16"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L5:S5"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L15:S15"/>
-    <mergeCell ref="L7:S12"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K12"/>
-    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C65:L65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="F66:J66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C61:L61"/>
+    <mergeCell ref="F62:J62"/>
+    <mergeCell ref="J63:L63"/>
     <mergeCell ref="C59:E59"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="I20:K20"/>
@@ -6730,18 +6687,61 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C61:L61"/>
-    <mergeCell ref="F62:J62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C65:L65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="F66:J66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="J67:L67"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K12"/>
+    <mergeCell ref="C6:E14"/>
+    <mergeCell ref="L5:S5"/>
+    <mergeCell ref="L6:S6"/>
+    <mergeCell ref="L13:S13"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="L15:S15"/>
+    <mergeCell ref="L7:S12"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="F6:H14"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="L16:S16"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C22:E25"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="T31:X31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="F23:G25"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P38:R41"/>
+    <mergeCell ref="N38:O41"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6763,19 +6763,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="160"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="167" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="168"/>
-      <c r="F1" s="169" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="168"/>
+      <c r="G1" s="140"/>
       <c r="H1" s="22" t="s">
         <v>28</v>
       </c>
@@ -6787,46 +6787,46 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="162"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="170" t="s">
+      <c r="A2" s="134"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="78">
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="62">
         <v>45632</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="157"/>
+      <c r="J2" s="128"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="162"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="158"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="159"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" thickBot="1">
       <c r="A5" s="25"/>
@@ -6840,62 +6840,62 @@
       <c r="J5" s="17"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="142"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="151"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="148" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="149" t="s">
+      <c r="B7" s="149"/>
+      <c r="C7" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="149" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="150"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="144" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="144"/>
-      <c r="C8" s="151" t="s">
+      <c r="B8" s="145"/>
+      <c r="C8" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="152"/>
-      <c r="E8" s="151" t="s">
+      <c r="D8" s="155"/>
+      <c r="E8" s="154" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="155"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="26"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A9" s="145"/>
-      <c r="B9" s="146"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="156"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="26"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
@@ -6926,78 +6926,78 @@
       <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="142"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="151"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="138" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="167"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="136" t="s">
+      <c r="A14" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
-      <c r="D14" s="133" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="123" t="s">
+      <c r="A15" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="129" t="s">
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="130"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="175"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="21" customHeight="1" thickBot="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="131" t="s">
+      <c r="B16" s="172"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="176" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="127"/>
-      <c r="F16" s="132"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -7031,12 +7031,12 @@
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -7307,6 +7307,23 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
@@ -7315,23 +7332,6 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D2:E4"/>
     <mergeCell ref="F2:G4"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
